--- a/BackTest/2020-01-24 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-68564.7873012788</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-68564.7873012788</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>87.98999999999999</v>
@@ -521,7 +521,7 @@
         <v>-68564.7873012788</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>87.98999999999999</v>
@@ -562,7 +562,7 @@
         <v>-68564.7873012788</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>87.98999999999999</v>
@@ -603,7 +603,7 @@
         <v>-68432.7873012788</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>87.98999999999999</v>
@@ -644,7 +644,7 @@
         <v>-68432.7873012788</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>88</v>
@@ -685,7 +685,7 @@
         <v>-68432.7873012788</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>88</v>
@@ -726,7 +726,7 @@
         <v>-68432.7873012788</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>88</v>
@@ -767,7 +767,7 @@
         <v>-57210.9646012788</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>88</v>
@@ -808,7 +808,7 @@
         <v>-43990.6024012788</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>88.89</v>
@@ -849,7 +849,7 @@
         <v>-43936.5595012788</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>88.90000000000001</v>
@@ -890,7 +890,7 @@
         <v>-43936.5595012788</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>88.97</v>
@@ -931,7 +931,7 @@
         <v>-28179.65580127879</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>88.97</v>
@@ -972,7 +972,7 @@
         <v>-10677.17380127879</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>89</v>
@@ -1013,7 +1013,7 @@
         <v>-10542.17380127879</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>89.01000000000001</v>
@@ -1054,7 +1054,7 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>89.09999999999999</v>
@@ -1095,7 +1095,7 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>89.39</v>
@@ -1136,7 +1136,7 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>89.39</v>
@@ -1177,7 +1177,7 @@
         <v>2942.592098721207</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>89.39</v>
@@ -1218,7 +1218,7 @@
         <v>11225.22479872121</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>89.61</v>
@@ -1259,7 +1259,7 @@
         <v>7225.224798721207</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>90</v>
@@ -1300,7 +1300,7 @@
         <v>8226.144698721208</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>89.51000000000001</v>
@@ -1341,7 +1341,7 @@
         <v>-41325.57350127879</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>90</v>
@@ -1382,7 +1382,7 @@
         <v>-40825.57350127879</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>89.51000000000001</v>
@@ -1423,7 +1423,7 @@
         <v>3400.172498721207</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>90</v>
@@ -1464,7 +1464,7 @@
         <v>2885.351398721207</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>90.45</v>
@@ -1505,7 +1505,7 @@
         <v>2885.351398721207</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>90.34999999999999</v>
@@ -1546,7 +1546,7 @@
         <v>35811.8209987212</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>90.34999999999999</v>
@@ -1587,7 +1587,7 @@
         <v>7489.701798721202</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>90.45</v>
@@ -1628,7 +1628,7 @@
         <v>7489.701798721202</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>90.3</v>
@@ -1669,7 +1669,7 @@
         <v>7489.701798721202</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>90.3</v>
@@ -1710,7 +1710,7 @@
         <v>18076.2487987212</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>90.3</v>
@@ -1751,7 +1751,7 @@
         <v>18076.2487987212</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>90.5</v>
@@ -1792,7 +1792,7 @@
         <v>-12670.7910012788</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>90.5</v>
@@ -1833,7 +1833,7 @@
         <v>-10527.0508012788</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>90</v>
@@ -1874,7 +1874,7 @@
         <v>-8836.609701278798</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>90.09999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>-602.7235012787969</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>90.23999999999999</v>
@@ -1956,7 +1956,7 @@
         <v>-76786.4365012788</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>90.41</v>
@@ -1997,7 +1997,7 @@
         <v>-77925.4365012788</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>90.40000000000001</v>
@@ -2038,7 +2038,7 @@
         <v>-77741.11860127881</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>90.31</v>
@@ -2079,7 +2079,7 @@
         <v>177913.2350987212</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>90.5</v>
@@ -2120,7 +2120,7 @@
         <v>255898.3974987212</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>91.27</v>
@@ -2200,9 +2200,11 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>92.27</v>
+      </c>
       <c r="J45" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2239,9 +2241,11 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>91.70999999999999</v>
+      </c>
       <c r="J46" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2278,9 +2282,11 @@
         <v>363063.6103987212</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>91.70999999999999</v>
+      </c>
       <c r="J47" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2317,9 +2323,11 @@
         <v>340962.8274987212</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>91.8</v>
+      </c>
       <c r="J48" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2356,9 +2364,11 @@
         <v>318805.2034987212</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>91.3</v>
+      </c>
       <c r="J49" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2395,7 +2405,7 @@
         <v>345514.3810987212</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>91.25</v>
@@ -2436,7 +2446,7 @@
         <v>345640.3810987212</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>92.18000000000001</v>
@@ -2477,9 +2487,11 @@
         <v>350180.6996987212</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>92.3</v>
+      </c>
       <c r="J52" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2516,9 +2528,11 @@
         <v>377084.4755987212</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>92.38</v>
+      </c>
       <c r="J53" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2555,9 +2569,11 @@
         <v>364276.9941987212</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>92.39</v>
+      </c>
       <c r="J54" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2594,9 +2610,11 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>91.8</v>
+      </c>
       <c r="J55" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2633,9 +2651,11 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="J56" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2672,9 +2692,11 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="J57" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2711,9 +2733,11 @@
         <v>361210.1053987212</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="J58" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2750,9 +2774,11 @@
         <v>378700.1053987212</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>91.7</v>
+      </c>
       <c r="J59" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2789,9 +2815,11 @@
         <v>378700.1053987212</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>91.8</v>
+      </c>
       <c r="J60" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2867,9 +2895,11 @@
         <v>390985.5679987212</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>92</v>
+      </c>
       <c r="J62" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2906,9 +2936,11 @@
         <v>457102.7217987212</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>92.39</v>
+      </c>
       <c r="J63" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3608,9 +3640,11 @@
         <v>406036.3946987211</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>90.78</v>
+      </c>
       <c r="J81" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3647,9 +3681,11 @@
         <v>416594.8974987211</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>90.26000000000001</v>
+      </c>
       <c r="J82" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3686,9 +3722,11 @@
         <v>416594.8974987211</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>90.27</v>
+      </c>
       <c r="J83" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3725,9 +3763,11 @@
         <v>414640.6537987211</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>90.27</v>
+      </c>
       <c r="J84" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3764,9 +3804,11 @@
         <v>406016.9698987211</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>90.25</v>
+      </c>
       <c r="J85" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3803,9 +3845,11 @@
         <v>397911.9468987212</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>89.95</v>
+      </c>
       <c r="J86" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3842,9 +3886,11 @@
         <v>349264.4590987212</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>89.81</v>
+      </c>
       <c r="J87" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3881,9 +3927,11 @@
         <v>336204.8638987212</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>89.64</v>
+      </c>
       <c r="J88" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3920,9 +3968,11 @@
         <v>339204.8638987212</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>89.53</v>
+      </c>
       <c r="J89" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3959,9 +4009,11 @@
         <v>341844.8638987212</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>89.91</v>
+      </c>
       <c r="J90" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -3998,9 +4050,11 @@
         <v>341844.8638987212</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>90.15000000000001</v>
+      </c>
       <c r="J91" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -4037,9 +4091,11 @@
         <v>341844.8638987212</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>90.15000000000001</v>
+      </c>
       <c r="J92" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -4076,9 +4132,11 @@
         <v>325234.8638987212</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>90.15000000000001</v>
+      </c>
       <c r="J93" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -4115,9 +4173,11 @@
         <v>340078.8972939255</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="J94" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -4154,9 +4214,11 @@
         <v>340078.8972939255</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J95" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -4193,9 +4255,11 @@
         <v>382594.6720939255</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J96" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -4232,9 +4296,11 @@
         <v>382594.6720939255</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>90.41</v>
+      </c>
       <c r="J97" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -7118,9 +7184,11 @@
         <v>595561.2402896007</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>90.65000000000001</v>
+      </c>
       <c r="J171" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -7196,9 +7264,11 @@
         <v>592905.1462896008</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>89.98</v>
+      </c>
       <c r="J173" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13124,9 +13194,11 @@
         <v>423207.3938015282</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>91.06999999999999</v>
+      </c>
       <c r="J325" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13163,9 +13235,11 @@
         <v>423220.5043015282</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>91.17</v>
+      </c>
       <c r="J326" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13202,9 +13276,11 @@
         <v>337527.3871015282</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>91.53</v>
+      </c>
       <c r="J327" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13241,9 +13317,11 @@
         <v>337535.0752015283</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>90.11</v>
+      </c>
       <c r="J328" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13280,9 +13358,11 @@
         <v>337143.9647015283</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>91.05</v>
+      </c>
       <c r="J329" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13319,9 +13399,11 @@
         <v>336453.8045015283</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>90.90000000000001</v>
+      </c>
       <c r="J330" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13358,9 +13440,11 @@
         <v>336496.6177015282</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>90.14</v>
+      </c>
       <c r="J331" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13397,9 +13481,11 @@
         <v>336496.6177015282</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>90.7</v>
+      </c>
       <c r="J332" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13514,9 +13600,11 @@
         <v>326269.3879015283</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>90.25</v>
+      </c>
       <c r="J335" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13553,9 +13641,11 @@
         <v>275375.1903015283</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>90.25</v>
+      </c>
       <c r="J336" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13592,9 +13682,11 @@
         <v>269810.4945015283</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>90.11</v>
+      </c>
       <c r="J337" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13631,9 +13723,11 @@
         <v>284250.7322015283</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>90</v>
+      </c>
       <c r="J338" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13670,9 +13764,11 @@
         <v>282770.7322015283</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>90.05</v>
+      </c>
       <c r="J339" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13709,9 +13805,11 @@
         <v>278157.2370015283</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>89.37</v>
+      </c>
       <c r="J340" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13748,9 +13846,11 @@
         <v>282872.2771015282</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>89.3</v>
+      </c>
       <c r="J341" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13787,9 +13887,11 @@
         <v>281874.8160015282</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>89.77</v>
+      </c>
       <c r="J342" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13826,9 +13928,11 @@
         <v>281881.5087015282</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>89.12</v>
+      </c>
       <c r="J343" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13865,9 +13969,11 @@
         <v>271103.5655015283</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>89.65000000000001</v>
+      </c>
       <c r="J344" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13904,9 +14010,11 @@
         <v>273327.7587397325</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>89.12</v>
+      </c>
       <c r="J345" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13943,9 +14051,11 @@
         <v>272227.7587397325</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>89.98999999999999</v>
+      </c>
       <c r="J346" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -13982,9 +14092,11 @@
         <v>185690.7577397325</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>89.2</v>
+      </c>
       <c r="J347" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -14021,9 +14133,11 @@
         <v>313885.7743397325</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>88.54000000000001</v>
+      </c>
       <c r="J348" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -15152,7 +15266,7 @@
         <v>583380.5587511708</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
@@ -15269,7 +15383,7 @@
         <v>606103.5744511707</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
@@ -15308,7 +15422,7 @@
         <v>584618.0241511707</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
@@ -15386,7 +15500,7 @@
         <v>574829.8601511708</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
@@ -15425,7 +15539,7 @@
         <v>577306.9997511707</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
@@ -15464,7 +15578,7 @@
         <v>573271.4943511707</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
@@ -15503,7 +15617,7 @@
         <v>550628.8428511707</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
@@ -15542,7 +15656,7 @@
         <v>561934.2196511707</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
@@ -15581,7 +15695,7 @@
         <v>559934.2196511707</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
@@ -15620,7 +15734,7 @@
         <v>560479.5279511707</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
@@ -15659,7 +15773,7 @@
         <v>555583.7622511707</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
@@ -15698,7 +15812,7 @@
         <v>552203.8060511707</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
@@ -15737,7 +15851,7 @@
         <v>540203.8060511707</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
@@ -15776,7 +15890,7 @@
         <v>537878.1751511707</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
@@ -15854,7 +15968,7 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
@@ -15893,7 +16007,7 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
@@ -15932,7 +16046,7 @@
         <v>588738.7982511707</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
@@ -16049,7 +16163,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
@@ -16088,7 +16202,7 @@
         <v>596884.1722511706</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
@@ -16205,7 +16319,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
@@ -16244,7 +16358,7 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
@@ -16361,7 +16475,7 @@
         <v>630553.6635511706</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
@@ -16400,7 +16514,7 @@
         <v>630553.6635511706</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
@@ -18194,7 +18308,7 @@
         <v>846621.7530727104</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
@@ -18202,15 +18316,13 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L455" t="n">
-        <v>1.072167859984089</v>
-      </c>
-      <c r="M455" t="n">
-        <v>1.001137785868699</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -18238,8 +18350,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18271,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18304,8 +18428,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18337,8 +18467,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18370,8 +18506,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18403,8 +18545,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18433,11 +18581,17 @@
         <v>1670861.907703097</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18466,11 +18620,17 @@
         <v>1704885.346503097</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18499,11 +18659,17 @@
         <v>1654180.619103097</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18532,11 +18698,17 @@
         <v>1679018.849303097</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18565,11 +18737,17 @@
         <v>1613357.547768503</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18598,11 +18776,17 @@
         <v>1604424.023968503</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18631,11 +18815,17 @@
         <v>1518746.183768503</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18667,8 +18857,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18700,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18733,8 +18935,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18766,8 +18974,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18796,15 +19010,23 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
+        <v>1.074668144107285</v>
+      </c>
+      <c r="M473" t="n">
+        <v>1.001137785868699</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -18829,7 +19051,7 @@
         <v>1411255.451568503</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18862,7 +19084,7 @@
         <v>1448976.734768503</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18895,7 +19117,7 @@
         <v>1463494.595668503</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18928,7 +19150,7 @@
         <v>1526522.729968503</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18994,7 +19216,7 @@
         <v>1556337.729968503</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19027,7 +19249,7 @@
         <v>1550977.298468503</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19060,7 +19282,7 @@
         <v>1566597.942936788</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19093,7 +19315,7 @@
         <v>1468956.423263074</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19126,7 +19348,7 @@
         <v>1475429.158863074</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19159,7 +19381,7 @@
         <v>1518371.033870702</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19192,7 +19414,7 @@
         <v>1445968.381670702</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19225,7 +19447,7 @@
         <v>1448041.397270703</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19258,7 +19480,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19291,7 +19513,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19324,7 +19546,7 @@
         <v>1451512.081770702</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19357,7 +19579,7 @@
         <v>1416854.687570703</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19390,7 +19612,7 @@
         <v>1428860.930170703</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19687,7 +19909,7 @@
         <v>1444297.511123453</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19720,7 +19942,7 @@
         <v>1448380.954823453</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19753,7 +19975,7 @@
         <v>1450758.259569629</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19786,7 +20008,7 @@
         <v>1456430.745569629</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19819,7 +20041,7 @@
         <v>1460973.195669629</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19852,7 +20074,7 @@
         <v>1461197.637769629</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19885,7 +20107,7 @@
         <v>1457768.942269629</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19918,7 +20140,7 @@
         <v>1457760.595869629</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19951,7 +20173,7 @@
         <v>1471163.310169629</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19984,7 +20206,7 @@
         <v>1471262.700469629</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20017,7 +20239,7 @@
         <v>1470542.700469629</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20050,7 +20272,7 @@
         <v>1488347.286924941</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20116,7 +20338,7 @@
         <v>1485748.727624941</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20314,7 +20536,7 @@
         <v>1496377.222524941</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20347,7 +20569,7 @@
         <v>1499697.222524941</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20380,7 +20602,7 @@
         <v>1499730.222524941</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20413,7 +20635,7 @@
         <v>1482879.397824941</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20446,7 +20668,7 @@
         <v>1482879.397824941</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20479,7 +20701,7 @@
         <v>1482979.397824941</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20512,7 +20734,7 @@
         <v>1475521.397824941</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20545,7 +20767,7 @@
         <v>1490480.997224941</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20578,7 +20800,7 @@
         <v>1489831.387224941</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20611,7 +20833,7 @@
         <v>1489831.387224941</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20644,7 +20866,7 @@
         <v>1477250.687434804</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20677,7 +20899,7 @@
         <v>1464813.428134804</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20688,6 +20910,6 @@
       <c r="M530" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -931,11 +931,9 @@
         <v>-28179.65580127879</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>88.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -972,11 +970,9 @@
         <v>-10677.17380127879</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1013,11 +1009,9 @@
         <v>-10542.17380127879</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>89.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1054,11 +1048,9 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>89.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1095,11 +1087,9 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>89.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1136,11 +1126,9 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>89.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1177,11 +1165,9 @@
         <v>2942.592098721207</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>89.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1218,11 +1204,9 @@
         <v>11225.22479872121</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>89.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1259,11 +1243,9 @@
         <v>7225.224798721207</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1300,11 +1282,9 @@
         <v>8226.144698721208</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>89.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1341,11 +1321,9 @@
         <v>-41325.57350127879</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1382,11 +1360,9 @@
         <v>-40825.57350127879</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>89.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1423,11 +1399,9 @@
         <v>3400.172498721207</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1464,11 +1438,9 @@
         <v>2885.351398721207</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>90.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1505,11 +1477,9 @@
         <v>2885.351398721207</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>90.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1546,11 +1516,9 @@
         <v>35811.8209987212</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>90.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1587,11 +1555,9 @@
         <v>7489.701798721202</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>90.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1628,11 +1594,9 @@
         <v>7489.701798721202</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>90.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1669,11 +1633,9 @@
         <v>7489.701798721202</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>90.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1710,11 +1672,9 @@
         <v>18076.2487987212</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>90.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1751,11 +1711,9 @@
         <v>18076.2487987212</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>90.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1792,11 +1750,9 @@
         <v>-12670.7910012788</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>90.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1833,11 +1789,9 @@
         <v>-10527.0508012788</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1874,11 +1828,9 @@
         <v>-8836.609701278798</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>90.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1915,11 +1867,9 @@
         <v>-602.7235012787969</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>90.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1956,11 +1906,9 @@
         <v>-76786.4365012788</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>90.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1997,11 +1945,9 @@
         <v>-77925.4365012788</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>90.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2038,11 +1984,9 @@
         <v>-77741.11860127881</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2079,11 +2023,9 @@
         <v>177913.2350987212</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>90.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2120,21 +2062,19 @@
         <v>255898.3974987212</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>91.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>87.98999999999999</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>1.034095351744517</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2161,17 +2101,11 @@
         <v>358931.0394987212</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2200,19 +2134,11 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>92.27</v>
-      </c>
-      <c r="J45" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2241,19 +2167,11 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>91.70999999999999</v>
-      </c>
-      <c r="J46" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2282,19 +2200,11 @@
         <v>363063.6103987212</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>91.70999999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2323,19 +2233,11 @@
         <v>340962.8274987212</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2364,19 +2266,11 @@
         <v>318805.2034987212</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2405,19 +2299,11 @@
         <v>345514.3810987212</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>91.25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2446,19 +2332,11 @@
         <v>345640.3810987212</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>92.18000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2487,19 +2365,11 @@
         <v>350180.6996987212</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2528,19 +2398,11 @@
         <v>377084.4755987212</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>92.38</v>
-      </c>
-      <c r="J53" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2569,19 +2431,11 @@
         <v>364276.9941987212</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>92.39</v>
-      </c>
-      <c r="J54" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2610,19 +2464,11 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2651,19 +2497,11 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="J56" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2692,19 +2530,11 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="J57" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2733,19 +2563,11 @@
         <v>361210.1053987212</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2774,19 +2596,11 @@
         <v>378700.1053987212</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2815,19 +2629,11 @@
         <v>378700.1053987212</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2895,19 +2695,11 @@
         <v>390985.5679987212</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>92</v>
-      </c>
-      <c r="J62" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2936,19 +2728,11 @@
         <v>457102.7217987212</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>92.39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2977,17 +2761,11 @@
         <v>466718.5611987212</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -3019,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3055,17 +2827,11 @@
         <v>467718.5611987212</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3094,17 +2860,11 @@
         <v>479133.8316987212</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3133,17 +2893,11 @@
         <v>478955.7477987212</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3172,17 +2926,11 @@
         <v>464014.0432987212</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3211,17 +2959,11 @@
         <v>478605.8582987212</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3250,17 +2992,11 @@
         <v>525955.2386987212</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3289,17 +3025,11 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3328,17 +3058,11 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3367,17 +3091,11 @@
         <v>484373.3377987212</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3406,17 +3124,11 @@
         <v>474633.4526987211</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3445,17 +3157,11 @@
         <v>474133.4526987211</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3484,17 +3190,11 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3523,17 +3223,11 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3565,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3604,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3640,19 +3322,11 @@
         <v>406036.3946987211</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>90.78</v>
-      </c>
-      <c r="J81" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3681,19 +3355,11 @@
         <v>416594.8974987211</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90.26000000000001</v>
-      </c>
-      <c r="J82" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3722,19 +3388,11 @@
         <v>416594.8974987211</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>90.27</v>
-      </c>
-      <c r="J83" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3763,19 +3421,11 @@
         <v>414640.6537987211</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>90.27</v>
-      </c>
-      <c r="J84" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3804,19 +3454,11 @@
         <v>406016.9698987211</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>90.25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3845,19 +3487,11 @@
         <v>397911.9468987212</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>89.95</v>
-      </c>
-      <c r="J86" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3886,19 +3520,11 @@
         <v>349264.4590987212</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="J87" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3927,19 +3553,11 @@
         <v>336204.8638987212</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>89.64</v>
-      </c>
-      <c r="J88" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3968,19 +3586,11 @@
         <v>339204.8638987212</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89.53</v>
-      </c>
-      <c r="J89" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4009,19 +3619,11 @@
         <v>341844.8638987212</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>89.91</v>
-      </c>
-      <c r="J90" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4050,19 +3652,11 @@
         <v>341844.8638987212</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="J91" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4091,19 +3685,11 @@
         <v>341844.8638987212</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4132,19 +3718,11 @@
         <v>325234.8638987212</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>90.15000000000001</v>
-      </c>
-      <c r="J93" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4173,19 +3751,11 @@
         <v>340078.8972939255</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="J94" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4214,19 +3784,11 @@
         <v>340078.8972939255</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4255,19 +3817,11 @@
         <v>382594.6720939255</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4296,19 +3850,11 @@
         <v>382594.6720939255</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>90.41</v>
-      </c>
-      <c r="J97" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4418,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4613,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5198,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5315,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6095,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6407,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6446,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6485,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6602,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6680,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6719,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6758,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6797,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6836,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6914,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6953,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6992,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7070,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7148,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7184,19 +6292,11 @@
         <v>595561.2402896007</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>90.65000000000001</v>
-      </c>
-      <c r="J171" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7264,19 +6358,11 @@
         <v>592905.1462896008</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>89.98</v>
-      </c>
-      <c r="J173" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7308,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7347,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7386,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7425,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7464,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7503,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7542,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7581,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7620,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7659,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7698,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7737,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7776,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7854,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7893,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7932,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7971,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8010,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8049,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8088,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8127,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8166,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8205,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8244,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8283,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8322,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8361,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8400,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8439,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8478,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8517,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8556,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8595,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8634,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8673,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8712,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8751,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8790,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8829,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8868,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8907,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8946,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8982,17 +7810,11 @@
         <v>627383.9606396225</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9021,17 +7843,11 @@
         <v>688356.4822896008</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9060,17 +7876,11 @@
         <v>686091.7572896008</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9099,17 +7909,11 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9138,17 +7942,11 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9177,17 +7975,11 @@
         <v>818993.8328896008</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9216,17 +8008,11 @@
         <v>827574.2032896008</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9255,17 +8041,11 @@
         <v>826762.1804896008</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9294,17 +8074,11 @@
         <v>847647.9563156413</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9333,17 +8107,11 @@
         <v>839747.5770156413</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9372,17 +8140,11 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9411,17 +8173,11 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9450,17 +8206,11 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9489,17 +8239,11 @@
         <v>878362.0044156413</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9528,17 +8272,11 @@
         <v>869688.2255156413</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9567,17 +8305,11 @@
         <v>857309.0258156413</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9606,17 +8338,11 @@
         <v>851927.3678156412</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9648,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9687,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9726,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9765,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9804,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9840,17 +8536,11 @@
         <v>849070.7861156414</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9882,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9921,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9960,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9999,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10038,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10074,17 +8734,11 @@
         <v>863207.5913156414</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10116,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10155,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10194,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10233,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10272,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10311,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10350,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10389,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10428,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10467,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10506,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10545,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10584,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10623,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10662,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10701,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10740,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10779,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10818,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10857,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10896,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10935,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10974,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11013,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11052,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11091,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11130,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11169,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11208,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11247,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11286,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11325,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11364,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11403,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11442,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11481,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11520,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11559,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11598,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11637,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11676,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11715,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11754,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11793,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11832,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11871,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11910,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11949,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11988,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12027,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12066,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12105,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12144,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12183,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12222,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12261,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12300,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12339,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12378,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12417,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12456,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12492,17 +10780,11 @@
         <v>407716.2830015282</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12531,17 +10813,11 @@
         <v>406919.4226015282</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12573,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12612,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12651,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12690,14 +10948,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12729,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12768,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12807,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12846,14 +11080,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12885,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12924,14 +11146,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12963,14 +11179,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13002,14 +11212,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13041,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13080,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13119,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13158,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13194,19 +11374,11 @@
         <v>423207.3938015282</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>91.06999999999999</v>
-      </c>
-      <c r="J325" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13235,19 +11407,11 @@
         <v>423220.5043015282</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>91.17</v>
-      </c>
-      <c r="J326" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13276,19 +11440,11 @@
         <v>337527.3871015282</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>91.53</v>
-      </c>
-      <c r="J327" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13317,19 +11473,11 @@
         <v>337535.0752015283</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>90.11</v>
-      </c>
-      <c r="J328" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13358,19 +11506,11 @@
         <v>337143.9647015283</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>91.05</v>
-      </c>
-      <c r="J329" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13399,19 +11539,11 @@
         <v>336453.8045015283</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="J330" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13440,19 +11572,11 @@
         <v>336496.6177015282</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>90.14</v>
-      </c>
-      <c r="J331" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13481,19 +11605,11 @@
         <v>336496.6177015282</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="J332" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13525,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13564,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13600,19 +11704,11 @@
         <v>326269.3879015283</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>90.25</v>
-      </c>
-      <c r="J335" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13641,19 +11737,11 @@
         <v>275375.1903015283</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>90.25</v>
-      </c>
-      <c r="J336" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13682,19 +11770,11 @@
         <v>269810.4945015283</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>90.11</v>
-      </c>
-      <c r="J337" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13723,19 +11803,11 @@
         <v>284250.7322015283</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>90</v>
-      </c>
-      <c r="J338" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13764,19 +11836,11 @@
         <v>282770.7322015283</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>90.05</v>
-      </c>
-      <c r="J339" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13805,19 +11869,11 @@
         <v>278157.2370015283</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>89.37</v>
-      </c>
-      <c r="J340" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13846,19 +11902,11 @@
         <v>282872.2771015282</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J341" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13887,19 +11935,11 @@
         <v>281874.8160015282</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>89.77</v>
-      </c>
-      <c r="J342" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13928,19 +11968,11 @@
         <v>281881.5087015282</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>89.12</v>
-      </c>
-      <c r="J343" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13969,19 +12001,11 @@
         <v>271103.5655015283</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>89.65000000000001</v>
-      </c>
-      <c r="J344" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14010,19 +12034,11 @@
         <v>273327.7587397325</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>89.12</v>
-      </c>
-      <c r="J345" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14051,19 +12067,11 @@
         <v>272227.7587397325</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>89.98999999999999</v>
-      </c>
-      <c r="J346" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14092,19 +12100,11 @@
         <v>185690.7577397325</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="J347" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14133,19 +12133,11 @@
         <v>313885.7743397325</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>88.54000000000001</v>
-      </c>
-      <c r="J348" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14177,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14216,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14333,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14372,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14411,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14450,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14489,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14528,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14567,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14606,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +12565,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14684,14 +12598,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14723,14 +12631,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14762,14 +12664,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14801,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14840,14 +12730,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14879,14 +12763,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14918,14 +12796,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14957,14 +12829,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14996,14 +12862,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15035,14 +12895,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15074,14 +12928,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15113,14 +12961,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15152,14 +12994,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15191,14 +13027,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15230,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15269,14 +13093,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15308,14 +13126,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15347,14 +13159,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15386,14 +13192,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15425,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15464,14 +13258,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15503,14 +13291,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15542,14 +13324,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15581,14 +13357,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15617,17 +13387,11 @@
         <v>550628.8428511707</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15656,17 +13420,11 @@
         <v>561934.2196511707</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15695,17 +13453,11 @@
         <v>559934.2196511707</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15734,17 +13486,11 @@
         <v>560479.5279511707</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15773,17 +13519,11 @@
         <v>555583.7622511707</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15812,17 +13552,11 @@
         <v>552203.8060511707</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15851,17 +13585,11 @@
         <v>540203.8060511707</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15890,17 +13618,11 @@
         <v>537878.1751511707</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15929,17 +13651,11 @@
         <v>546368.6640511707</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15968,17 +13684,11 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16007,17 +13717,11 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16046,17 +13750,11 @@
         <v>588738.7982511707</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16085,17 +13783,11 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16124,17 +13816,11 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16163,17 +13849,11 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16202,17 +13882,11 @@
         <v>596884.1722511706</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16241,17 +13915,11 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16280,17 +13948,11 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16319,17 +13981,11 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16358,17 +14014,11 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16397,17 +14047,11 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16439,14 +14083,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16475,17 +14113,11 @@
         <v>630553.6635511706</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16517,14 +14149,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16556,14 +14182,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16595,14 +14215,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16634,14 +14248,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16673,14 +14281,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16712,14 +14314,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16751,14 +14347,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16790,14 +14380,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16829,14 +14413,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16868,14 +14446,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16907,14 +14479,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16946,14 +14512,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16985,14 +14545,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17024,14 +14578,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17063,14 +14611,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17102,14 +14644,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17141,14 +14677,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17180,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17219,14 +14743,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17258,14 +14776,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17297,14 +14809,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17336,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17375,14 +14875,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17414,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17453,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17492,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17531,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17570,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17609,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17648,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17687,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17726,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17765,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17804,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17843,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17882,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17921,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17960,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17999,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18038,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18077,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18116,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18155,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18194,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18233,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18272,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18311,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18350,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18389,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18428,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18467,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18506,14 +15832,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18545,14 +15865,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18584,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18623,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18662,14 +15964,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18701,14 +15997,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18740,14 +16030,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18779,14 +16063,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18818,14 +16096,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18857,14 +16129,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18896,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18935,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18974,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19010,23 +16258,15 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>87.98999999999999</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
-        <v>1.074668144107285</v>
-      </c>
-      <c r="M473" t="n">
-        <v>1.001137785868699</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -19051,7 +16291,7 @@
         <v>1411255.451568503</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19084,7 +16324,7 @@
         <v>1448976.734768503</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -19117,7 +16357,7 @@
         <v>1463494.595668503</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19150,7 +16390,7 @@
         <v>1526522.729968503</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19216,7 +16456,7 @@
         <v>1556337.729968503</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19249,7 +16489,7 @@
         <v>1550977.298468503</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19282,7 +16522,7 @@
         <v>1566597.942936788</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19315,7 +16555,7 @@
         <v>1468956.423263074</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19348,7 +16588,7 @@
         <v>1475429.158863074</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19381,7 +16621,7 @@
         <v>1518371.033870702</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19414,7 +16654,7 @@
         <v>1445968.381670702</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19447,7 +16687,7 @@
         <v>1448041.397270703</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19480,7 +16720,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19513,7 +16753,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19546,7 +16786,7 @@
         <v>1451512.081770702</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19579,7 +16819,7 @@
         <v>1416854.687570703</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19612,7 +16852,7 @@
         <v>1428860.930170703</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19909,7 +17149,7 @@
         <v>1444297.511123453</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19942,7 +17182,7 @@
         <v>1448380.954823453</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19975,7 +17215,7 @@
         <v>1450758.259569629</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -20008,7 +17248,7 @@
         <v>1456430.745569629</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -20041,7 +17281,7 @@
         <v>1460973.195669629</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -20074,7 +17314,7 @@
         <v>1461197.637769629</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -20107,7 +17347,7 @@
         <v>1457768.942269629</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20140,7 +17380,7 @@
         <v>1457760.595869629</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20173,7 +17413,7 @@
         <v>1471163.310169629</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20206,7 +17446,7 @@
         <v>1471262.700469629</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20239,7 +17479,7 @@
         <v>1470542.700469629</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20536,7 +17776,7 @@
         <v>1496377.222524941</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20569,7 +17809,7 @@
         <v>1499697.222524941</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20602,7 +17842,7 @@
         <v>1499730.222524941</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20635,7 +17875,7 @@
         <v>1482879.397824941</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20668,7 +17908,7 @@
         <v>1482879.397824941</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20701,7 +17941,7 @@
         <v>1482979.397824941</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20734,7 +17974,7 @@
         <v>1475521.397824941</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20767,7 +18007,7 @@
         <v>1490480.997224941</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20800,7 +18040,7 @@
         <v>1489831.387224941</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20833,7 +18073,7 @@
         <v>1489831.387224941</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20866,7 +18106,7 @@
         <v>1477250.687434804</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20899,7 +18139,7 @@
         <v>1464813.428134804</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20910,6 +18150,6 @@
       <c r="M530" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-24 BackTest ENJ.xlsx
@@ -931,9 +931,11 @@
         <v>-28179.65580127879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>88.97</v>
+      </c>
       <c r="J14" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -970,9 +972,11 @@
         <v>-10677.17380127879</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>89</v>
+      </c>
       <c r="J15" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1009,9 +1013,11 @@
         <v>-10542.17380127879</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>89.01000000000001</v>
+      </c>
       <c r="J16" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1048,9 +1054,11 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="J17" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1087,9 +1095,11 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>89.39</v>
+      </c>
       <c r="J18" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1126,9 +1136,11 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>89.39</v>
+      </c>
       <c r="J19" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1165,9 +1177,11 @@
         <v>2942.592098721207</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>89.39</v>
+      </c>
       <c r="J20" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1204,9 +1218,11 @@
         <v>11225.22479872121</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>89.61</v>
+      </c>
       <c r="J21" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1243,9 +1259,11 @@
         <v>7225.224798721207</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
       <c r="J22" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1282,9 +1300,11 @@
         <v>8226.144698721208</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>89.51000000000001</v>
+      </c>
       <c r="J23" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1321,9 +1341,11 @@
         <v>-41325.57350127879</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>90</v>
+      </c>
       <c r="J24" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1360,9 +1382,11 @@
         <v>-40825.57350127879</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>89.51000000000001</v>
+      </c>
       <c r="J25" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -1399,9 +1423,11 @@
         <v>3400.172498721207</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>90</v>
+      </c>
       <c r="J26" t="n">
         <v>87.98999999999999</v>
       </c>
@@ -2062,7 +2088,7 @@
         <v>255898.3974987212</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2070,11 +2096,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.034095351744517</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2101,11 +2127,17 @@
         <v>358931.0394987212</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2166,17 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2205,17 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2244,17 @@
         <v>363063.6103987212</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2283,17 @@
         <v>340962.8274987212</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2322,17 @@
         <v>318805.2034987212</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2361,17 @@
         <v>345514.3810987212</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2400,17 @@
         <v>345640.3810987212</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2439,17 @@
         <v>350180.6996987212</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2478,17 @@
         <v>377084.4755987212</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2517,17 @@
         <v>364276.9941987212</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2556,17 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2595,17 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2634,17 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2673,17 @@
         <v>361210.1053987212</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2715,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2754,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2793,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2832,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2868,17 @@
         <v>457102.7217987212</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2907,17 @@
         <v>466718.5611987212</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2949,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2985,17 @@
         <v>467718.5611987212</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3024,17 @@
         <v>479133.8316987212</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3063,17 @@
         <v>478955.7477987212</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3102,17 @@
         <v>464014.0432987212</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3141,17 @@
         <v>478605.8582987212</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3180,17 @@
         <v>525955.2386987212</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3219,17 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3258,17 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3297,17 @@
         <v>484373.3377987212</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3336,17 @@
         <v>474633.4526987211</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3375,17 @@
         <v>474133.4526987211</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3414,17 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3453,17 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3495,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3534,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3573,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3612,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3651,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3690,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3729,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3807,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3846,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3885,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3924,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3963,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4002,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4041,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4080,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4119,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4158,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4197,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4236,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4275,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4314,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4353,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4392,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4431,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4470,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4509,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4548,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4587,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4665,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4704,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4743,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4782,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4821,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4860,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4899,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4938,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4977,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5055,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5094,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5133,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5172,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5211,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5250,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5289,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5328,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5406,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5445,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5523,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5562,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5601,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5640,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5679,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5718,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5757,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5796,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5835,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5874,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5913,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5952,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5991,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6030,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6069,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6108,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6147,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6186,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6225,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6264,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6303,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6342,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6381,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6420,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6459,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6498,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6537,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6576,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6615,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6654,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6693,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6732,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6771,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6810,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6849,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6888,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6927,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6966,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7005,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7044,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7083,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7122,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7161,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7200,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7239,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7278,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7317,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7356,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7395,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7434,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7473,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7512,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7551,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7590,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7629,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7668,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7707,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7746,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7785,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7863,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7902,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7941,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7980,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +8019,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +8058,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +8097,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +8136,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8175,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8214,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8253,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8292,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8331,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8370,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8409,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8448,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8487,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8643,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8682,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8721,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8760,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8799,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8838,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8874,17 @@
         <v>627383.9606396225</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8913,17 @@
         <v>688356.4822896008</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8952,17 @@
         <v>686091.7572896008</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8991,17 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +9030,17 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +9069,17 @@
         <v>818993.8328896008</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +9108,17 @@
         <v>827574.2032896008</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +9147,17 @@
         <v>826762.1804896008</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +9186,17 @@
         <v>847647.9563156413</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +9225,17 @@
         <v>839747.5770156413</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +9264,17 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +9303,17 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +9342,17 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +9381,17 @@
         <v>878362.0044156413</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +9420,17 @@
         <v>869688.2255156413</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +9459,17 @@
         <v>857309.0258156413</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +9498,17 @@
         <v>851927.3678156412</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9540,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9579,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9732,17 @@
         <v>849070.7861156414</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9852,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9891,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9966,17 @@
         <v>863207.5913156414</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +10008,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +10047,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +10125,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +10749,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +10866,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +10905,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +10944,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +11061,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +11139,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +11178,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +11217,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +11256,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +11295,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +11334,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +11373,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +11451,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +11490,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +11529,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +11568,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +11607,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +11646,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +11724,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +11763,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +11802,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +11841,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +11880,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +11919,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +12036,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +12075,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +12114,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +12153,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +12192,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +12231,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +12270,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +12309,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +12348,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +12384,17 @@
         <v>407716.2830015282</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +12423,17 @@
         <v>406919.4226015282</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +12465,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +12504,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +12543,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +12621,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +12660,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +12699,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +12738,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +12777,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +12816,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +12855,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +12894,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +12933,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12972,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +13011,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +13050,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +13089,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +13128,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +13167,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +13206,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +13245,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +13284,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +13323,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +13362,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +13401,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +13440,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +13479,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +13518,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +13557,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +13596,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +13635,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +13674,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +13713,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +13752,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +13791,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +13830,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +13869,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +13908,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +13947,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +13986,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +14025,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +14064,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +14103,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +14142,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +14220,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +14259,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +14298,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +14337,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +14376,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +14415,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +14454,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +14493,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +14532,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +14571,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +14610,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +14649,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +14688,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +14727,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +14766,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +14805,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +14844,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +14883,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +14922,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +14961,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +15000,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +15039,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +15078,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +15117,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +15156,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +15195,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +15234,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +15273,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +15312,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +15351,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +15390,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +15429,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +15465,17 @@
         <v>550628.8428511707</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +15504,17 @@
         <v>561934.2196511707</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +15543,17 @@
         <v>559934.2196511707</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +15582,17 @@
         <v>560479.5279511707</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +15621,17 @@
         <v>555583.7622511707</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +15660,17 @@
         <v>552203.8060511707</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +15699,17 @@
         <v>540203.8060511707</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +15738,17 @@
         <v>537878.1751511707</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +15777,17 @@
         <v>546368.6640511707</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +15816,17 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +15855,17 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +15894,17 @@
         <v>588738.7982511707</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +15933,17 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +15972,17 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +16011,17 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +16050,17 @@
         <v>596884.1722511706</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +16089,17 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +16128,17 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +16167,17 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +16206,17 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +16245,17 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14083,8 +16287,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +16323,17 @@
         <v>630553.6635511706</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14149,8 +16365,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +16404,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +16443,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14248,8 +16482,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14281,8 +16521,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14314,8 +16560,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14347,8 +16599,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +16638,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +16677,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14446,8 +16716,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +16755,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14512,8 +16794,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14545,8 +16833,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14578,8 +16872,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14611,8 +16911,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14644,8 +16950,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14677,8 +16989,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14710,8 +17028,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14743,8 +17067,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +17106,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +17145,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +17184,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +17223,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +17262,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +17301,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +17340,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15007,8 +17379,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +17418,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +17457,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +17496,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +17535,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15172,8 +17574,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15205,8 +17613,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15238,8 +17652,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +17691,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15304,8 +17730,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15337,8 +17769,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15370,8 +17808,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +17847,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15436,8 +17886,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +17925,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15502,8 +17964,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15535,8 +18003,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +18042,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15601,8 +18081,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15634,8 +18120,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15667,8 +18159,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15700,8 +18198,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +18237,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15766,8 +18276,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15799,8 +18315,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15832,8 +18354,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +18393,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15895,15 +18429,23 @@
         <v>1670861.907703097</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
+        <v>1.096375156267758</v>
+      </c>
+      <c r="M462" t="n">
+        <v>1.001137785868699</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -15928,7 +18470,7 @@
         <v>1704885.346503097</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15961,7 +18503,7 @@
         <v>1654180.619103097</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15994,7 +18536,7 @@
         <v>1679018.849303097</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16027,7 +18569,7 @@
         <v>1613357.547768503</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16060,7 +18602,7 @@
         <v>1604424.023968503</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16093,7 +18635,7 @@
         <v>1518746.183768503</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16126,7 +18668,7 @@
         <v>1500349.153368503</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16159,7 +18701,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16192,7 +18734,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16225,7 +18767,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16291,7 +18833,7 @@
         <v>1411255.451568503</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16324,7 +18866,7 @@
         <v>1448976.734768503</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16357,7 +18899,7 @@
         <v>1463494.595668503</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16390,7 +18932,7 @@
         <v>1526522.729968503</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16423,7 +18965,7 @@
         <v>1525807.729968503</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16456,7 +18998,7 @@
         <v>1556337.729968503</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16489,7 +19031,7 @@
         <v>1550977.298468503</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16522,7 +19064,7 @@
         <v>1566597.942936788</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16555,7 +19097,7 @@
         <v>1468956.423263074</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16588,7 +19130,7 @@
         <v>1475429.158863074</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16621,7 +19163,7 @@
         <v>1518371.033870702</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16654,7 +19196,7 @@
         <v>1445968.381670702</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16687,7 +19229,7 @@
         <v>1448041.397270703</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16720,7 +19262,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16753,7 +19295,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16819,7 +19361,7 @@
         <v>1416854.687570703</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16852,7 +19394,7 @@
         <v>1428860.930170703</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16885,7 +19427,7 @@
         <v>1428838.292623454</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17347,7 +19889,7 @@
         <v>1457768.942269629</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17380,7 +19922,7 @@
         <v>1457760.595869629</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17479,7 +20021,7 @@
         <v>1470542.700469629</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17545,7 +20087,7 @@
         <v>1485748.727624941</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
